--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2419.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2419.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.03590740210567</v>
+        <v>1.338815331459045</v>
       </c>
       <c r="B1">
-        <v>2.099640249087491</v>
+        <v>1.398788213729858</v>
       </c>
       <c r="C1">
-        <v>9.036328252984919</v>
+        <v>3.883192777633667</v>
       </c>
       <c r="D1">
-        <v>2.037808549128459</v>
+        <v>3.321572780609131</v>
       </c>
       <c r="E1">
-        <v>0.9981631191963923</v>
+        <v>1.065452098846436</v>
       </c>
     </row>
   </sheetData>
